--- a/Code/Results/Cases/Case_5_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.28167104320845</v>
+        <v>13.14763442785013</v>
       </c>
       <c r="C2">
-        <v>8.764457549171674</v>
+        <v>5.674338765439493</v>
       </c>
       <c r="D2">
-        <v>4.930139837741092</v>
+        <v>6.995812154052948</v>
       </c>
       <c r="E2">
-        <v>13.01014782275963</v>
+        <v>10.89328524447621</v>
       </c>
       <c r="F2">
-        <v>33.61041194046282</v>
+        <v>36.54564082404119</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.40797801428191</v>
+        <v>12.54395826449728</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.44323190441626</v>
+        <v>15.45836519353912</v>
       </c>
       <c r="N2">
-        <v>15.77304476951799</v>
+        <v>22.05602951071957</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19247578715525</v>
+        <v>12.90300152081777</v>
       </c>
       <c r="C3">
-        <v>8.146986822490026</v>
+        <v>5.468126719357534</v>
       </c>
       <c r="D3">
-        <v>4.997747725282698</v>
+        <v>7.004714139653245</v>
       </c>
       <c r="E3">
-        <v>12.14216684607544</v>
+        <v>10.68004866482394</v>
       </c>
       <c r="F3">
-        <v>32.37997331283841</v>
+        <v>36.32024241319986</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.46625075235857</v>
+        <v>12.38199045569924</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.36500822533898</v>
+        <v>15.3057058912435</v>
       </c>
       <c r="N3">
-        <v>15.82924156206454</v>
+        <v>22.0791869710074</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.5534902134689</v>
+        <v>12.75462639527421</v>
       </c>
       <c r="C4">
-        <v>7.748559050540211</v>
+        <v>5.339488557428469</v>
       </c>
       <c r="D4">
-        <v>5.039161060689278</v>
+        <v>7.010280847802146</v>
       </c>
       <c r="E4">
-        <v>11.62375766517467</v>
+        <v>10.55058114629494</v>
       </c>
       <c r="F4">
-        <v>31.62912422927674</v>
+        <v>36.18938287075239</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.85788507541955</v>
+        <v>12.28525165783836</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.66969057827018</v>
+        <v>15.21569009320429</v>
       </c>
       <c r="N4">
-        <v>15.8693786659747</v>
+        <v>22.09520667110844</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.29708682794392</v>
+        <v>12.69471338035311</v>
       </c>
       <c r="C5">
-        <v>7.581271160510875</v>
+        <v>5.286654779910362</v>
       </c>
       <c r="D5">
-        <v>5.056034158325429</v>
+        <v>7.012574888963574</v>
       </c>
       <c r="E5">
-        <v>11.40874170489817</v>
+        <v>10.49826652806886</v>
       </c>
       <c r="F5">
-        <v>31.32459329238049</v>
+        <v>36.13798917063363</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.60229004083358</v>
+        <v>12.24656038395257</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.43568607129475</v>
+        <v>15.17998091453097</v>
       </c>
       <c r="N5">
-        <v>15.88708896065269</v>
+        <v>22.10218718289555</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.25418018133734</v>
+        <v>12.68480080359064</v>
       </c>
       <c r="C6">
-        <v>7.553193609759017</v>
+        <v>5.277859812751306</v>
       </c>
       <c r="D6">
-        <v>5.058836330917936</v>
+        <v>7.012957362539182</v>
       </c>
       <c r="E6">
-        <v>11.37281557812012</v>
+        <v>10.48960882402887</v>
       </c>
       <c r="F6">
-        <v>31.27412225712071</v>
+        <v>36.12957304756824</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.55938188023268</v>
+        <v>12.24018125590398</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.39933262589505</v>
+        <v>15.17411127187021</v>
       </c>
       <c r="N6">
-        <v>15.89010979612678</v>
+        <v>22.10337359759234</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.55005457552751</v>
+        <v>12.75381603632765</v>
       </c>
       <c r="C7">
-        <v>7.746322983267776</v>
+        <v>5.338777560639823</v>
       </c>
       <c r="D7">
-        <v>5.039388602732893</v>
+        <v>7.010311682299666</v>
       </c>
       <c r="E7">
-        <v>11.62087292641099</v>
+        <v>10.54987371151472</v>
       </c>
       <c r="F7">
-        <v>31.62501097170401</v>
+        <v>36.18868188506229</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.85446926300641</v>
+        <v>12.28472683205448</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.66578927063331</v>
+        <v>15.21520451832634</v>
       </c>
       <c r="N7">
-        <v>15.86961210925771</v>
+        <v>22.09529898191569</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.91317737289464</v>
+        <v>13.06295948568585</v>
       </c>
       <c r="C8">
-        <v>8.555513903129864</v>
+        <v>5.603711838228624</v>
       </c>
       <c r="D8">
-        <v>4.9534848838415</v>
+        <v>6.998860750246856</v>
       </c>
       <c r="E8">
-        <v>12.68860085594733</v>
+        <v>10.81950435178496</v>
       </c>
       <c r="F8">
-        <v>33.1853483493519</v>
+        <v>36.46638290454301</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.08946332006507</v>
+        <v>12.48757919285895</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.07829218097883</v>
+        <v>15.40498020206297</v>
       </c>
       <c r="N8">
-        <v>15.79121364663206</v>
+        <v>22.06364012056163</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.44546359891742</v>
+        <v>13.67975060619454</v>
       </c>
       <c r="C9">
-        <v>9.992728485128479</v>
+        <v>6.103395136797101</v>
       </c>
       <c r="D9">
-        <v>4.783185094187787</v>
+        <v>6.977195878263608</v>
       </c>
       <c r="E9">
-        <v>14.9077902227356</v>
+        <v>11.35647424617703</v>
       </c>
       <c r="F9">
-        <v>36.27192833675398</v>
+        <v>37.06894966650856</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.27701324534583</v>
+        <v>12.9046529415831</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.59010593175328</v>
+        <v>15.80485458249603</v>
       </c>
       <c r="N9">
-        <v>15.68521394190313</v>
+        <v>22.01586984991549</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.15026421336323</v>
+        <v>14.13414272667927</v>
       </c>
       <c r="C10">
-        <v>10.96274199575343</v>
+        <v>6.453910265604036</v>
       </c>
       <c r="D10">
-        <v>4.655304964830897</v>
+        <v>6.961745832631292</v>
       </c>
       <c r="E10">
-        <v>16.41564251663111</v>
+        <v>11.751591151212</v>
       </c>
       <c r="F10">
-        <v>38.54613423050635</v>
+        <v>37.54440972837766</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.74869046125178</v>
+        <v>13.21979691446712</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.28731057100984</v>
+        <v>16.1130572421851</v>
       </c>
       <c r="N10">
-        <v>15.64110077226828</v>
+        <v>21.98953096584893</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.89388911789032</v>
+        <v>14.34007259902631</v>
       </c>
       <c r="C11">
-        <v>11.38666998692733</v>
+        <v>6.608974829726807</v>
       </c>
       <c r="D11">
-        <v>4.59611775657786</v>
+        <v>6.954815415645907</v>
       </c>
       <c r="E11">
-        <v>17.07727445792499</v>
+        <v>11.93058177620847</v>
       </c>
       <c r="F11">
-        <v>39.58123483746358</v>
+        <v>37.76721417899339</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.39053886284053</v>
+        <v>13.36440868978306</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.02948289109558</v>
+        <v>16.25584421256912</v>
       </c>
       <c r="N11">
-        <v>15.62953064066966</v>
+        <v>21.97945724463399</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.17106736430303</v>
+        <v>14.41785822520792</v>
       </c>
       <c r="C12">
-        <v>11.54482696379752</v>
+        <v>6.667007435208556</v>
       </c>
       <c r="D12">
-        <v>4.573520671445806</v>
+        <v>6.95220488751976</v>
       </c>
       <c r="E12">
-        <v>17.32453718854146</v>
+        <v>11.99818295174618</v>
       </c>
       <c r="F12">
-        <v>39.97328772395097</v>
+        <v>37.85246691022461</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.62977903427457</v>
+        <v>13.41929567371657</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.3064338715229</v>
+        <v>16.31023829092713</v>
       </c>
       <c r="N12">
-        <v>15.62648085394122</v>
+        <v>21.9759174692872</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.11156557628184</v>
+        <v>14.40111569064729</v>
       </c>
       <c r="C13">
-        <v>11.51086867171375</v>
+        <v>6.654540450158086</v>
       </c>
       <c r="D13">
-        <v>4.578396206517276</v>
+        <v>6.952766497845496</v>
       </c>
       <c r="E13">
-        <v>17.27142712735017</v>
+        <v>11.98363286583399</v>
       </c>
       <c r="F13">
-        <v>39.88884763341638</v>
+        <v>37.83406790290318</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.57842131720569</v>
+        <v>13.40747004538671</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.2469660836729</v>
+        <v>16.29850991687976</v>
       </c>
       <c r="N13">
-        <v>15.62707658662553</v>
+        <v>21.97666758715949</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.91678020754294</v>
+        <v>14.3464764552974</v>
       </c>
       <c r="C14">
-        <v>11.39972854584863</v>
+        <v>6.613763272442482</v>
       </c>
       <c r="D14">
-        <v>4.594262607047281</v>
+        <v>6.954600369124641</v>
       </c>
       <c r="E14">
-        <v>17.09768141248365</v>
+        <v>11.93614733975243</v>
       </c>
       <c r="F14">
-        <v>39.61348733620591</v>
+        <v>37.77421062872055</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.41029676905394</v>
+        <v>13.36892206433735</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.05234860325593</v>
+        <v>16.26031303211669</v>
       </c>
       <c r="N14">
-        <v>15.62925237647201</v>
+        <v>21.97916051215164</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.79689877584483</v>
+        <v>14.31298045481066</v>
       </c>
       <c r="C15">
-        <v>11.33134636229595</v>
+        <v>6.588695059514549</v>
       </c>
       <c r="D15">
-        <v>4.603956038609049</v>
+        <v>6.955725468449174</v>
       </c>
       <c r="E15">
-        <v>16.99083627976665</v>
+        <v>11.90703577216964</v>
       </c>
       <c r="F15">
-        <v>39.44483327727548</v>
+        <v>37.73765944736961</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.30682391315597</v>
+        <v>13.34532508085136</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.93261313295072</v>
+        <v>16.23695707720418</v>
       </c>
       <c r="N15">
-        <v>15.63076197351933</v>
+        <v>21.98072332026368</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.10103887814098</v>
+        <v>14.12066184636213</v>
       </c>
       <c r="C16">
-        <v>10.93469823993838</v>
+        <v>6.443683198650884</v>
       </c>
       <c r="D16">
-        <v>4.659149400931348</v>
+        <v>6.962200703847016</v>
       </c>
       <c r="E16">
-        <v>16.37193189460381</v>
+        <v>11.73987246422129</v>
       </c>
       <c r="F16">
-        <v>38.47849778757966</v>
+        <v>37.52997534500992</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.70620148803771</v>
+        <v>13.21036671152932</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.23822337180505</v>
+        <v>16.10377369116572</v>
       </c>
       <c r="N16">
-        <v>15.64203700988638</v>
+        <v>21.99022774876619</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.66609732723567</v>
+        <v>14.0024209568775</v>
       </c>
       <c r="C17">
-        <v>10.68700728548523</v>
+        <v>6.353557385950142</v>
       </c>
       <c r="D17">
-        <v>4.69272305661687</v>
+        <v>6.966197976021848</v>
       </c>
       <c r="E17">
-        <v>15.98617385169753</v>
+        <v>11.63707957538842</v>
       </c>
       <c r="F17">
-        <v>37.88580434968213</v>
+        <v>37.40419777405428</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.33077186556688</v>
+        <v>13.12785569017474</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.80472049679356</v>
+        <v>16.02269787524393</v>
       </c>
       <c r="N17">
-        <v>15.65120471674041</v>
+        <v>21.99654748895108</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.41291687826676</v>
+        <v>13.93434372916196</v>
       </c>
       <c r="C18">
-        <v>10.54290256028706</v>
+        <v>6.301309415409522</v>
       </c>
       <c r="D18">
-        <v>4.711940837094318</v>
+        <v>6.96850632711534</v>
       </c>
       <c r="E18">
-        <v>15.76199508622772</v>
+        <v>11.57788925174082</v>
       </c>
       <c r="F18">
-        <v>37.54495043589072</v>
+        <v>37.33247052824379</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.11222416646385</v>
+        <v>13.08051850428406</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.5525538208267</v>
+        <v>15.97631131828421</v>
       </c>
       <c r="N18">
-        <v>15.65727032179086</v>
+        <v>22.0003619911176</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.32667184249429</v>
+        <v>13.91128486317209</v>
       </c>
       <c r="C19">
-        <v>10.49382620890223</v>
+        <v>6.28355056287668</v>
       </c>
       <c r="D19">
-        <v>4.718432793618977</v>
+        <v>6.969289485923931</v>
       </c>
       <c r="E19">
-        <v>15.68569076286616</v>
+        <v>11.55783920730942</v>
       </c>
       <c r="F19">
-        <v>37.42955237824345</v>
+        <v>37.30829248938076</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.0377747221937</v>
+        <v>13.06451339186419</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.46668301487586</v>
+        <v>15.96064935015932</v>
       </c>
       <c r="N19">
-        <v>15.65945699972259</v>
+        <v>22.0016843372971</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.71270831382172</v>
+        <v>14.0150155810573</v>
       </c>
       <c r="C20">
-        <v>10.71354327211955</v>
+        <v>6.363194293991817</v>
       </c>
       <c r="D20">
-        <v>4.689158962891581</v>
+        <v>6.965771506257953</v>
       </c>
       <c r="E20">
-        <v>16.02747513782968</v>
+        <v>11.64802946828529</v>
       </c>
       <c r="F20">
-        <v>37.94889284180118</v>
+        <v>37.41752358228732</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.37100606657</v>
+        <v>13.1366270053792</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.8511588120294</v>
+        <v>16.03130340894742</v>
       </c>
       <c r="N20">
-        <v>15.65014601109</v>
+        <v>21.99585615459454</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.97411180080208</v>
+        <v>14.36253127990622</v>
       </c>
       <c r="C21">
-        <v>11.43243656441645</v>
+        <v>6.625759575905206</v>
       </c>
       <c r="D21">
-        <v>4.589607586246239</v>
+        <v>6.9540613418786</v>
       </c>
       <c r="E21">
-        <v>17.14880203779491</v>
+        <v>11.9501003860967</v>
       </c>
       <c r="F21">
-        <v>39.69436470838013</v>
+        <v>37.79176868658914</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.45978119244459</v>
+        <v>13.38024155859632</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.10962182962845</v>
+        <v>16.27152397840823</v>
       </c>
       <c r="N21">
-        <v>15.62857622381815</v>
+        <v>21.97842081390433</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.77286273917511</v>
+        <v>14.58847703930421</v>
       </c>
       <c r="C22">
-        <v>11.88849312651387</v>
+        <v>6.793335638958403</v>
       </c>
       <c r="D22">
-        <v>4.523450489259666</v>
+        <v>6.946488823734172</v>
       </c>
       <c r="E22">
-        <v>17.86263437671583</v>
+        <v>12.14644939430503</v>
       </c>
       <c r="F22">
-        <v>40.83566666719296</v>
+        <v>38.04147085826292</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.1492134689928</v>
+        <v>13.54016567869123</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.90835119521533</v>
+        <v>16.43038686494736</v>
       </c>
       <c r="N22">
-        <v>15.62230008014069</v>
+        <v>21.96862852710774</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.34883998629437</v>
+        <v>14.46801982303436</v>
       </c>
       <c r="C23">
-        <v>11.64630610355672</v>
+        <v>6.704282274616173</v>
       </c>
       <c r="D23">
-        <v>4.558873755253382</v>
+        <v>6.950523098551735</v>
       </c>
       <c r="E23">
-        <v>17.48331278723566</v>
+        <v>12.04177476212747</v>
       </c>
       <c r="F23">
-        <v>40.22646370098452</v>
+        <v>37.90775113728164</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.78322027994902</v>
+        <v>13.45476405442365</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.48415369621227</v>
+        <v>16.34544393936217</v>
       </c>
       <c r="N23">
-        <v>15.6248948096908</v>
+        <v>21.97370802562524</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.69164523858923</v>
+        <v>14.00932185327432</v>
       </c>
       <c r="C24">
-        <v>10.70155166854548</v>
+        <v>6.358838793610628</v>
       </c>
       <c r="D24">
-        <v>4.690770548965963</v>
+        <v>6.965964281225675</v>
       </c>
       <c r="E24">
-        <v>16.00881032160573</v>
+        <v>11.64307930699894</v>
       </c>
       <c r="F24">
-        <v>37.9203708657471</v>
+        <v>37.41149716117736</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.35282463154746</v>
+        <v>13.13266117970099</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.83017322269045</v>
+        <v>16.02741214265785</v>
       </c>
       <c r="N24">
-        <v>15.65062218392231</v>
+        <v>21.99616814243779</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.78833295948304</v>
+        <v>13.51230730683005</v>
       </c>
       <c r="C25">
-        <v>9.619419339778542</v>
+        <v>5.970839404178887</v>
       </c>
       <c r="D25">
-        <v>4.829612302186566</v>
+        <v>6.982973701827112</v>
       </c>
       <c r="E25">
-        <v>14.32968250199647</v>
+        <v>11.21079204752995</v>
       </c>
       <c r="F25">
-        <v>35.43527375545328</v>
+        <v>36.89998846239462</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.70958192910136</v>
+        <v>12.79007103736927</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.93733204326461</v>
+        <v>15.69396148765037</v>
       </c>
       <c r="N25">
-        <v>15.70832482625599</v>
+        <v>22.02725728114239</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.14763442785013</v>
+        <v>15.28167104320845</v>
       </c>
       <c r="C2">
-        <v>5.674338765439493</v>
+        <v>8.764457549171665</v>
       </c>
       <c r="D2">
-        <v>6.995812154052948</v>
+        <v>4.930139837741029</v>
       </c>
       <c r="E2">
-        <v>10.89328524447621</v>
+        <v>13.0101478227596</v>
       </c>
       <c r="F2">
-        <v>36.54564082404119</v>
+        <v>33.61041194046287</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.54395826449728</v>
+        <v>13.40797801428191</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.45836519353912</v>
+        <v>15.44323190441624</v>
       </c>
       <c r="N2">
-        <v>22.05602951071957</v>
+        <v>15.77304476951801</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.90300152081777</v>
+        <v>14.19247578715522</v>
       </c>
       <c r="C3">
-        <v>5.468126719357534</v>
+        <v>8.146986822490112</v>
       </c>
       <c r="D3">
-        <v>7.004714139653245</v>
+        <v>4.997747725282496</v>
       </c>
       <c r="E3">
-        <v>10.68004866482394</v>
+        <v>12.14216684607546</v>
       </c>
       <c r="F3">
-        <v>36.32024241319986</v>
+        <v>32.3799733128385</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.38199045569924</v>
+        <v>12.4662507523586</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.3057058912435</v>
+        <v>14.36500822533899</v>
       </c>
       <c r="N3">
-        <v>22.0791869710074</v>
+        <v>15.82924156206453</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.75462639527421</v>
+        <v>13.55349021346892</v>
       </c>
       <c r="C4">
-        <v>5.339488557428469</v>
+        <v>7.748559050540195</v>
       </c>
       <c r="D4">
-        <v>7.010280847802146</v>
+        <v>5.039161060689211</v>
       </c>
       <c r="E4">
-        <v>10.55058114629494</v>
+        <v>11.62375766517468</v>
       </c>
       <c r="F4">
-        <v>36.18938287075239</v>
+        <v>31.62912422927669</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.28525165783836</v>
+        <v>11.85788507541954</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.21569009320429</v>
+        <v>13.66969057827019</v>
       </c>
       <c r="N4">
-        <v>22.09520667110844</v>
+        <v>15.86937866597464</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.69471338035311</v>
+        <v>13.29708682794393</v>
       </c>
       <c r="C5">
-        <v>5.286654779910362</v>
+        <v>7.58127116051092</v>
       </c>
       <c r="D5">
-        <v>7.012574888963574</v>
+        <v>5.056034158325564</v>
       </c>
       <c r="E5">
-        <v>10.49826652806886</v>
+        <v>11.40874170489817</v>
       </c>
       <c r="F5">
-        <v>36.13798917063363</v>
+        <v>31.32459329238038</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.24656038395257</v>
+        <v>11.60229004083362</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.17998091453097</v>
+        <v>13.43568607129475</v>
       </c>
       <c r="N5">
-        <v>22.10218718289555</v>
+        <v>15.88708896065264</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68480080359064</v>
+        <v>13.25418018133732</v>
       </c>
       <c r="C6">
-        <v>5.277859812751306</v>
+        <v>7.553193609758933</v>
       </c>
       <c r="D6">
-        <v>7.012957362539182</v>
+        <v>5.058836330918068</v>
       </c>
       <c r="E6">
-        <v>10.48960882402887</v>
+        <v>11.37281557812014</v>
       </c>
       <c r="F6">
-        <v>36.12957304756824</v>
+        <v>31.27412225712071</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.24018125590398</v>
+        <v>11.55938188023269</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.17411127187021</v>
+        <v>13.39933262589506</v>
       </c>
       <c r="N6">
-        <v>22.10337359759234</v>
+        <v>15.89010979612684</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.75381603632765</v>
+        <v>13.5500545755275</v>
       </c>
       <c r="C7">
-        <v>5.338777560639823</v>
+        <v>7.746322983267823</v>
       </c>
       <c r="D7">
-        <v>7.010311682299666</v>
+        <v>5.039388602733024</v>
       </c>
       <c r="E7">
-        <v>10.54987371151472</v>
+        <v>11.62087292641101</v>
       </c>
       <c r="F7">
-        <v>36.18868188506229</v>
+        <v>31.62501097170389</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.28472683205448</v>
+        <v>11.85446926300641</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.21520451832634</v>
+        <v>13.66578927063333</v>
       </c>
       <c r="N7">
-        <v>22.09529898191569</v>
+        <v>15.86961210925765</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.06295948568585</v>
+        <v>14.91317737289463</v>
       </c>
       <c r="C8">
-        <v>5.603711838228624</v>
+        <v>8.555513903129848</v>
       </c>
       <c r="D8">
-        <v>6.998860750246856</v>
+        <v>4.953484883841631</v>
       </c>
       <c r="E8">
-        <v>10.81950435178496</v>
+        <v>12.68860085594731</v>
       </c>
       <c r="F8">
-        <v>36.46638290454301</v>
+        <v>33.18534834935189</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.48757919285895</v>
+        <v>13.08946332006506</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.40498020206297</v>
+        <v>15.07829218097881</v>
       </c>
       <c r="N8">
-        <v>22.06364012056163</v>
+        <v>15.79121364663207</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.67975060619454</v>
+        <v>17.44546359891746</v>
       </c>
       <c r="C9">
-        <v>6.103395136797101</v>
+        <v>9.992728485128401</v>
       </c>
       <c r="D9">
-        <v>6.977195878263608</v>
+        <v>4.783185094188052</v>
       </c>
       <c r="E9">
-        <v>11.35647424617703</v>
+        <v>14.90779022273563</v>
       </c>
       <c r="F9">
-        <v>37.06894966650856</v>
+        <v>36.27192833675389</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.9046529415831</v>
+        <v>15.27701324534583</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.80485458249603</v>
+        <v>17.59010593175331</v>
       </c>
       <c r="N9">
-        <v>22.01586984991549</v>
+        <v>15.68521394190308</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.13414272667927</v>
+        <v>19.15026421336329</v>
       </c>
       <c r="C10">
-        <v>6.453910265604036</v>
+        <v>10.96274199575345</v>
       </c>
       <c r="D10">
-        <v>6.961745832631292</v>
+        <v>4.655304964830703</v>
       </c>
       <c r="E10">
-        <v>11.751591151212</v>
+        <v>16.41564251663108</v>
       </c>
       <c r="F10">
-        <v>37.54440972837766</v>
+        <v>38.54613423050643</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.21979691446712</v>
+        <v>16.74869046125182</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.1130572421851</v>
+        <v>19.28731057100984</v>
       </c>
       <c r="N10">
-        <v>21.98953096584893</v>
+        <v>15.64110077226831</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.34007259902631</v>
+        <v>19.89388911789018</v>
       </c>
       <c r="C11">
-        <v>6.608974829726807</v>
+        <v>11.38666998692755</v>
       </c>
       <c r="D11">
-        <v>6.954815415645907</v>
+        <v>4.596117756578052</v>
       </c>
       <c r="E11">
-        <v>11.93058177620847</v>
+        <v>17.07727445792501</v>
       </c>
       <c r="F11">
-        <v>37.76721417899339</v>
+        <v>39.58123483746348</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.36440868978306</v>
+        <v>17.39053886284049</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.25584421256912</v>
+        <v>20.02948289109555</v>
       </c>
       <c r="N11">
-        <v>21.97945724463399</v>
+        <v>15.62953064066967</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.41785822520792</v>
+        <v>20.17106736430306</v>
       </c>
       <c r="C12">
-        <v>6.667007435208556</v>
+        <v>11.54482696379754</v>
       </c>
       <c r="D12">
-        <v>6.95220488751976</v>
+        <v>4.573520671446001</v>
       </c>
       <c r="E12">
-        <v>11.99818295174618</v>
+        <v>17.32453718854145</v>
       </c>
       <c r="F12">
-        <v>37.85246691022461</v>
+        <v>39.97328772395097</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.41929567371657</v>
+        <v>17.6297790342746</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.31023829092713</v>
+        <v>20.30643387152291</v>
       </c>
       <c r="N12">
-        <v>21.9759174692872</v>
+        <v>15.62648085394124</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.40111569064729</v>
+        <v>20.11156557628193</v>
       </c>
       <c r="C13">
-        <v>6.654540450158086</v>
+        <v>11.51086867171375</v>
       </c>
       <c r="D13">
-        <v>6.952766497845496</v>
+        <v>4.57839620651729</v>
       </c>
       <c r="E13">
-        <v>11.98363286583399</v>
+        <v>17.27142712735022</v>
       </c>
       <c r="F13">
-        <v>37.83406790290318</v>
+        <v>39.88884763341641</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.40747004538671</v>
+        <v>17.57842131720574</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.29850991687976</v>
+        <v>20.24696608367297</v>
       </c>
       <c r="N13">
-        <v>21.97666758715949</v>
+        <v>15.62707658662547</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.3464764552974</v>
+        <v>19.91678020754287</v>
       </c>
       <c r="C14">
-        <v>6.613763272442482</v>
+        <v>11.39972854584872</v>
       </c>
       <c r="D14">
-        <v>6.954600369124641</v>
+        <v>4.594262607047347</v>
       </c>
       <c r="E14">
-        <v>11.93614733975243</v>
+        <v>17.09768141248362</v>
       </c>
       <c r="F14">
-        <v>37.77421062872055</v>
+        <v>39.61348733620598</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.36892206433735</v>
+        <v>17.41029676905393</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.26031303211669</v>
+        <v>20.05234860325588</v>
       </c>
       <c r="N14">
-        <v>21.97916051215164</v>
+        <v>15.62925237647209</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.31298045481066</v>
+        <v>19.79689877584465</v>
       </c>
       <c r="C15">
-        <v>6.588695059514549</v>
+        <v>11.33134636229601</v>
       </c>
       <c r="D15">
-        <v>6.955725468449174</v>
+        <v>4.603956038608984</v>
       </c>
       <c r="E15">
-        <v>11.90703577216964</v>
+        <v>16.99083627976659</v>
       </c>
       <c r="F15">
-        <v>37.73765944736961</v>
+        <v>39.44483327727552</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.34532508085136</v>
+        <v>17.30682391315587</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.23695707720418</v>
+        <v>19.9326131329506</v>
       </c>
       <c r="N15">
-        <v>21.98072332026368</v>
+        <v>15.63076197351938</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.12066184636213</v>
+        <v>19.101038878141</v>
       </c>
       <c r="C16">
-        <v>6.443683198650884</v>
+        <v>10.93469823993848</v>
       </c>
       <c r="D16">
-        <v>6.962200703847016</v>
+        <v>4.659149400931414</v>
       </c>
       <c r="E16">
-        <v>11.73987246422129</v>
+        <v>16.37193189460374</v>
       </c>
       <c r="F16">
-        <v>37.52997534500992</v>
+        <v>38.47849778757967</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.21036671152932</v>
+        <v>16.70620148803773</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.10377369116572</v>
+        <v>19.23822337180504</v>
       </c>
       <c r="N16">
-        <v>21.99022774876619</v>
+        <v>15.64203700988637</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.0024209568775</v>
+        <v>18.66609732723575</v>
       </c>
       <c r="C17">
-        <v>6.353557385950142</v>
+        <v>10.6870072854853</v>
       </c>
       <c r="D17">
-        <v>6.966197976021848</v>
+        <v>4.692723056616801</v>
       </c>
       <c r="E17">
-        <v>11.63707957538842</v>
+        <v>15.98617385169757</v>
       </c>
       <c r="F17">
-        <v>37.40419777405428</v>
+        <v>37.88580434968205</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.12785569017474</v>
+        <v>16.33077186556697</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.02269787524393</v>
+        <v>18.80472049679365</v>
       </c>
       <c r="N17">
-        <v>21.99654748895108</v>
+        <v>15.65120471674036</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.93434372916196</v>
+        <v>18.41291687826666</v>
       </c>
       <c r="C18">
-        <v>6.301309415409522</v>
+        <v>10.54290256028688</v>
       </c>
       <c r="D18">
-        <v>6.96850632711534</v>
+        <v>4.711940837094322</v>
       </c>
       <c r="E18">
-        <v>11.57788925174082</v>
+        <v>15.76199508622775</v>
       </c>
       <c r="F18">
-        <v>37.33247052824379</v>
+        <v>37.54495043589066</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.08051850428406</v>
+        <v>16.11222416646375</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.97631131828421</v>
+        <v>18.55255382082665</v>
       </c>
       <c r="N18">
-        <v>22.0003619911176</v>
+        <v>15.65727032179083</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.91128486317209</v>
+        <v>18.32667184249416</v>
       </c>
       <c r="C19">
-        <v>6.28355056287668</v>
+        <v>10.49382620890223</v>
       </c>
       <c r="D19">
-        <v>6.969289485923931</v>
+        <v>4.718432793619176</v>
       </c>
       <c r="E19">
-        <v>11.55783920730942</v>
+        <v>15.68569076286622</v>
       </c>
       <c r="F19">
-        <v>37.30829248938076</v>
+        <v>37.42955237824354</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.06451339186419</v>
+        <v>16.03777472219359</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.96064935015932</v>
+        <v>18.46668301487581</v>
       </c>
       <c r="N19">
-        <v>22.0016843372971</v>
+        <v>15.65945699972271</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.0150155810573</v>
+        <v>18.7127083138217</v>
       </c>
       <c r="C20">
-        <v>6.363194293991817</v>
+        <v>10.71354327211944</v>
       </c>
       <c r="D20">
-        <v>6.965771506257953</v>
+        <v>4.689158962891782</v>
       </c>
       <c r="E20">
-        <v>11.64802946828529</v>
+        <v>16.02747513782971</v>
       </c>
       <c r="F20">
-        <v>37.41752358228732</v>
+        <v>37.94889284180118</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.1366270053792</v>
+        <v>16.37100606656995</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.03130340894742</v>
+        <v>18.8511588120294</v>
       </c>
       <c r="N20">
-        <v>21.99585615459454</v>
+        <v>15.65014601109006</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.36253127990622</v>
+        <v>19.97411180080212</v>
       </c>
       <c r="C21">
-        <v>6.625759575905206</v>
+        <v>11.43243656441644</v>
       </c>
       <c r="D21">
-        <v>6.9540613418786</v>
+        <v>4.589607586246306</v>
       </c>
       <c r="E21">
-        <v>11.9501003860967</v>
+        <v>17.14880203779488</v>
       </c>
       <c r="F21">
-        <v>37.79176868658914</v>
+        <v>39.69436470838016</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.38024155859632</v>
+        <v>17.45978119244463</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.27152397840823</v>
+        <v>20.10962182962847</v>
       </c>
       <c r="N21">
-        <v>21.97842081390433</v>
+        <v>15.62857622381817</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.58847703930421</v>
+        <v>20.77286273917519</v>
       </c>
       <c r="C22">
-        <v>6.793335638958403</v>
+        <v>11.88849312651405</v>
       </c>
       <c r="D22">
-        <v>6.946488823734172</v>
+        <v>4.523450489259605</v>
       </c>
       <c r="E22">
-        <v>12.14644939430503</v>
+        <v>17.86263437671583</v>
       </c>
       <c r="F22">
-        <v>38.04147085826292</v>
+        <v>40.83566666719296</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.54016567869123</v>
+        <v>18.14921346899295</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.43038686494736</v>
+        <v>20.90835119521541</v>
       </c>
       <c r="N22">
-        <v>21.96862852710774</v>
+        <v>15.62230008014063</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.46801982303436</v>
+        <v>20.34883998629442</v>
       </c>
       <c r="C23">
-        <v>6.704282274616173</v>
+        <v>11.64630610355677</v>
       </c>
       <c r="D23">
-        <v>6.950523098551735</v>
+        <v>4.558873755253383</v>
       </c>
       <c r="E23">
-        <v>12.04177476212747</v>
+        <v>17.48331278723564</v>
       </c>
       <c r="F23">
-        <v>37.90775113728164</v>
+        <v>40.2264637009845</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.45476405442365</v>
+        <v>17.78322027994909</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.34544393936217</v>
+        <v>20.4841536962123</v>
       </c>
       <c r="N23">
-        <v>21.97370802562524</v>
+        <v>15.62489480969077</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.00932185327432</v>
+        <v>18.69164523858927</v>
       </c>
       <c r="C24">
-        <v>6.358838793610628</v>
+        <v>10.70155166854551</v>
       </c>
       <c r="D24">
-        <v>6.965964281225675</v>
+        <v>4.690770548966031</v>
       </c>
       <c r="E24">
-        <v>11.64307930699894</v>
+        <v>16.00881032160573</v>
       </c>
       <c r="F24">
-        <v>37.41149716117736</v>
+        <v>37.92037086574718</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.13266117970099</v>
+        <v>16.35282463154747</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.02741214265785</v>
+        <v>18.83017322269046</v>
       </c>
       <c r="N24">
-        <v>21.99616814243779</v>
+        <v>15.65062218392229</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.51230730683005</v>
+        <v>16.78833295948303</v>
       </c>
       <c r="C25">
-        <v>5.970839404178887</v>
+        <v>9.619419339778366</v>
       </c>
       <c r="D25">
-        <v>6.982973701827112</v>
+        <v>4.829612302186693</v>
       </c>
       <c r="E25">
-        <v>11.21079204752995</v>
+        <v>14.3296825019965</v>
       </c>
       <c r="F25">
-        <v>36.89998846239462</v>
+        <v>35.43527375545329</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.79007103736927</v>
+        <v>14.70958192910131</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.69396148765037</v>
+        <v>16.9373320432646</v>
       </c>
       <c r="N25">
-        <v>22.02725728114239</v>
+        <v>15.70832482625601</v>
       </c>
       <c r="O25">
         <v>0</v>
